--- a/biology/Médecine/MedinTux/MedinTux.xlsx
+++ b/biology/Médecine/MedinTux/MedinTux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Medin'Tux vise à fournir aux membres des professions médicales et paramédicales un logiciel libre de gestion des consultations, des prescriptions et des actes administratifs, tant en milieu libéral qu'hospitalier, écrit pour l'environnement français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Medin'Tux vise à fournir aux membres des professions médicales et paramédicales un logiciel libre de gestion des consultations, des prescriptions et des actes administratifs, tant en milieu libéral qu'hospitalier, écrit pour l'environnement français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctionnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>MedinTux est écrit, initialement, pour les services d'accueil des urgences (SAU) français. Sa souplesse lui permet d'être utilisé par la plupart des spécialités médicales, et paramédicales.
 Le logiciel fonctionne en réseau dans un environnement multi-utilisateurs.
@@ -558,7 +572,9 @@
           <t>Infrastructure matérielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logiciel est écrit en C++, avec la bibliothèque Qt, et stocke ses données dans MySQL.
 Il existe également une extension MedWebTux, permettant d'accéder à l'ensemble des données à partir d'un simple navigateur, sous réserve d'installer apache et son module PHP sur le serveur.
@@ -590,7 +606,9 @@
           <t>Plates-formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">MedinTux fonctionne (tant au niveau serveur qu'au niveau client) sur :
 GNU/Linux + X Window (testé au moins sur Mandriva, Ubuntu et dérivées, SuSE, Xandros eeePC)
@@ -626,9 +644,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vainqueur des Trophées du libre en 2005, catégorie gestion d'entreprise[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vainqueur des Trophées du libre en 2005, catégorie gestion d'entreprise.
 nommé aux Lutèce d'Or 2007</t>
         </is>
       </c>
